--- a/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$H$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="132">
   <si>
     <t>Hello team, </t>
   </si>
@@ -334,7 +334,7 @@
     <t>مصطفى علاء</t>
   </si>
   <si>
-    <t>باسنت أحمد سمير</t>
+    <t>بسنت أحمد سمير</t>
   </si>
   <si>
     <t>مريم ابو بكر</t>
@@ -346,12 +346,18 @@
     <t>احمد مجدي</t>
   </si>
   <si>
+    <t>Ahmed Magdy</t>
+  </si>
+  <si>
     <t>مريم اشرف</t>
   </si>
   <si>
     <t>يوسف عادل</t>
   </si>
   <si>
+    <t>Youssef Adel</t>
+  </si>
+  <si>
     <t>منة الله مجدي</t>
   </si>
   <si>
@@ -388,6 +394,12 @@
     <t>ماهر علي دهب</t>
   </si>
   <si>
+    <t>عمر محمد رضا</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
     <t>عمر ابراهيم</t>
   </si>
   <si>
@@ -413,9 +425,6 @@
   </si>
   <si>
     <t>ملاك هيثم</t>
-  </si>
-  <si>
-    <t>عمر محمد رضا</t>
   </si>
   <si>
     <t>محمد فرنواني</t>
@@ -1178,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1193,9 +1202,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,40 +1209,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,281 +1576,281 @@
   <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>1116450350</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>1011205791</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>1025613339</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>1026846805</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>1000169013</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="63.25" spans="1:3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="38.25" spans="1:3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>1270058439</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>1019687588</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>1060459705</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>1141267479</v>
       </c>
     </row>
     <row r="19" ht="38.25" spans="1:3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>1007434092</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>1097696568</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>1080882916</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>1091247732</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>1004788915</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>1143367222</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="23">
         <v>1092203298</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="23">
         <v>1110894484</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="22">
         <v>1008001070</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <v>1552720827</v>
       </c>
     </row>
@@ -1857,12 +1867,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E25"/>
+      <selection activeCell="A25" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="35.2727272727273" style="9" customWidth="1"/>
+    <col min="2" max="2" width="32.9090909090909" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.1636363636364" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.9545454545455" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25.75" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="50.75" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="50.75" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +1930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="50.75" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="50.75" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="25.75" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1964,7 +1981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" ht="50.75" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +1998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="63.25" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -1998,7 +2015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="50.75" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -2015,7 +2032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="50.75" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
@@ -2032,7 +2049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" ht="50.75" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" ht="50.75" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -2066,7 +2083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" ht="50.75" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
@@ -2083,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" ht="50.75" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>76</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="50.75" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" ht="50.75" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="50.75" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" ht="50.75" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" ht="50.75" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2185,7 +2202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" ht="50.75" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" ht="50.75" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="50.75" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
@@ -2236,7 +2253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="50.75" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
         <v>48</v>
       </c>
@@ -2253,11 +2270,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="50.75" spans="1:5">
-      <c r="A24" s="15" t="s">
+    <row r="24" ht="14.75" spans="1:5">
+      <c r="A24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>1021877601</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2270,7 +2287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" ht="50.75" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="13" t="s">
         <v>87</v>
       </c>
@@ -2299,7 +2316,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="A3:G24"/>
+      <selection activeCell="G25" sqref="A3:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2351,7 +2368,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>0.375</v>
       </c>
@@ -2373,8 +2390,11 @@
       <c r="G3" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>0.375</v>
       </c>
@@ -2396,8 +2416,11 @@
       <c r="G4" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>0.375</v>
       </c>
@@ -2419,8 +2442,11 @@
       <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>0.375</v>
       </c>
@@ -2442,31 +2468,37 @@
       <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>0.375</v>
       </c>
       <c r="B7" s="4">
         <v>0.708333333333333</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>1032409151</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>0.375</v>
       </c>
@@ -2480,7 +2512,7 @@
         <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2488,31 +2520,37 @@
       <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>0.375</v>
       </c>
       <c r="B9" s="4">
         <v>0.708333333333333</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>1000115172</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>0.375</v>
       </c>
@@ -2526,7 +2564,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>59</v>
@@ -2534,8 +2572,11 @@
       <c r="G10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>0.375</v>
       </c>
@@ -2549,7 +2590,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>62</v>
@@ -2557,8 +2598,11 @@
       <c r="G11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>0.375</v>
       </c>
@@ -2572,7 +2616,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>62</v>
@@ -2580,8 +2624,11 @@
       <c r="G12" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>0.375</v>
       </c>
@@ -2595,7 +2642,7 @@
         <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>62</v>
@@ -2603,8 +2650,11 @@
       <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>0.375</v>
       </c>
@@ -2618,7 +2668,7 @@
         <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
@@ -2626,8 +2676,11 @@
       <c r="G14" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>0.375</v>
       </c>
@@ -2641,16 +2694,19 @@
         <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>0.375</v>
       </c>
@@ -2664,7 +2720,7 @@
         <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
@@ -2672,8 +2728,11 @@
       <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>0.375</v>
       </c>
@@ -2687,7 +2746,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
@@ -2695,8 +2754,11 @@
       <c r="G17" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>0.375</v>
       </c>
@@ -2710,7 +2772,7 @@
         <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -2718,8 +2780,11 @@
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>0.375</v>
       </c>
@@ -2733,7 +2798,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>70</v>
@@ -2741,8 +2806,11 @@
       <c r="G19" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>0.375</v>
       </c>
@@ -2756,7 +2824,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
@@ -2764,8 +2832,11 @@
       <c r="G20" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>0.375</v>
       </c>
@@ -2773,22 +2844,25 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C21" s="5">
-        <v>1143367222</v>
+        <v>1007434092</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>0.375</v>
       </c>
@@ -2796,22 +2870,25 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C22" s="5">
-        <v>1025613339</v>
+        <v>1143367222</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>0.375</v>
       </c>
@@ -2819,22 +2896,25 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C23" s="5">
-        <v>1552720827</v>
+        <v>1025613339</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>0.375</v>
       </c>
@@ -2842,22 +2922,25 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C24" s="5">
-        <v>1080882916</v>
+        <v>1552720827</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>0.375</v>
       </c>
@@ -2865,18 +2948,25 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C25" s="5">
-        <v>1011205791</v>
+        <v>1080882916</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>0.375</v>
       </c>
@@ -2884,37 +2974,43 @@
         <v>0.708333333333333</v>
       </c>
       <c r="C26" s="5">
-        <v>1000169013</v>
+        <v>1011205791</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>0.375</v>
       </c>
       <c r="B27" s="4">
         <v>0.708333333333333</v>
       </c>
-      <c r="C27" s="7">
-        <v>1007434092</v>
+      <c r="C27" s="6">
+        <v>1000169013</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>0.375</v>
       </c>
@@ -2928,56 +3024,59 @@
         <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:G28" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:G28">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H28" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A3:H28">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="140">
   <si>
     <t>Hello team, </t>
   </si>
@@ -301,6 +301,27 @@
     <t>1212874368 / 967777756816</t>
   </si>
   <si>
+    <t>Kindly help update the pick-up points for the below trainees.</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Pick-Up Point</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>النافورة</t>
+  </si>
+  <si>
+    <t>تقاطع ولي العهد</t>
+  </si>
+  <si>
     <t>الاثنين 26 الساعة 9 ص ل 5 م</t>
   </si>
   <si>
@@ -359,6 +380,9 @@
   </si>
   <si>
     <t>منة الله مجدي</t>
+  </si>
+  <si>
+    <t>ولي العهد</t>
   </si>
   <si>
     <t>ابراهيم بلة</t>
@@ -442,7 +466,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +499,19 @@
       <sz val="11"/>
       <color rgb="FF3C4043"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -635,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +693,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -853,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -936,6 +979,51 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1057,137 +1145,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1228,19 +1316,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,274 +1683,274 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="16"/>
+      <c r="A2" s="20"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="24">
         <v>1116450350</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="24">
         <v>1011205791</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="24">
         <v>1025613339</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="24">
         <v>1026846805</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="24">
         <v>1000169013</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="63.25" spans="1:3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="38.25" spans="1:3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="24">
         <v>1270058439</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="24">
         <v>1019687588</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="24">
         <v>1060459705</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="24">
         <v>1141267479</v>
       </c>
     </row>
     <row r="19" ht="38.25" spans="1:3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="24">
         <v>1007434092</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <v>1097696568</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="24">
         <v>1080882916</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="24">
         <v>1091247732</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="24">
         <v>1004788915</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="24">
         <v>1143367222</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="27">
         <v>1092203298</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="27">
         <v>1110894484</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="26">
         <v>1008001070</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="27">
         <v>1552720827</v>
       </c>
     </row>
@@ -1864,10 +1964,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A2:A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1879,7 +1979,7 @@
     <col min="5" max="5" width="15.9545454545455" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.25" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15.25" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -1913,7 +2013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15.25" spans="1:5">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1930,7 +2030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15.25" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +2047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.25" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1964,7 +2064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.25" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +2081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15.25" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +2098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.25" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -2015,7 +2115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15.25" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="15.25" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +2149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="15.25" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15.25" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="15.25" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
@@ -2100,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="15.25" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>76</v>
       </c>
@@ -2117,7 +2217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="15.25" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="15.25" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -2151,7 +2251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="15.25" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2168,7 +2268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" ht="15.25" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="15.25" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2202,7 +2302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" ht="15.25" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="15.25" spans="1:5">
       <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
@@ -2236,7 +2336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="15.25" spans="1:5">
       <c r="A22" s="13" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="15.25" spans="1:5">
       <c r="A23" s="13" t="s">
         <v>48</v>
       </c>
@@ -2270,7 +2370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="14.75" spans="1:5">
+    <row r="24" ht="15.25" spans="1:5">
       <c r="A24" s="13" t="s">
         <v>85</v>
       </c>
@@ -2287,7 +2387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="15.25" spans="1:5">
       <c r="A25" s="13" t="s">
         <v>87</v>
       </c>
@@ -2302,6 +2402,62 @@
       </c>
       <c r="E25" s="14" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="18">
+        <v>10333437</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="18">
+        <v>10333354</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2472,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="A3:G25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2335,35 +2491,35 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2379,10 +2535,10 @@
         <v>1091247732</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -2405,10 +2561,10 @@
         <v>1060459705</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -2431,10 +2587,10 @@
         <v>1270058439</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>66</v>
@@ -2457,13 +2613,13 @@
         <v>1019687588</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>69</v>
@@ -2483,19 +2639,19 @@
         <v>1032409151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2509,10 +2665,10 @@
         <v>1141267479</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2535,10 +2691,10 @@
         <v>1000115172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2547,7 +2703,7 @@
         <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2561,16 +2717,16 @@
         <v>1026846805</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2587,10 +2743,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>62</v>
@@ -2613,10 +2769,10 @@
         <v>1097696568</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>62</v>
@@ -2639,10 +2795,10 @@
         <v>1110894484</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>62</v>
@@ -2665,10 +2821,10 @@
         <v>1021877601</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
@@ -2691,13 +2847,13 @@
         <v>1004788915</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>81</v>
@@ -2717,10 +2873,10 @@
         <v>1116450350</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
@@ -2743,16 +2899,16 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
@@ -2769,10 +2925,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -2795,10 +2951,10 @@
         <v>1092203298</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>70</v>
@@ -2821,10 +2977,10 @@
         <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
@@ -2847,16 +3003,16 @@
         <v>1007434092</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
         <v>76</v>
@@ -2873,13 +3029,13 @@
         <v>1143367222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -2899,13 +3055,13 @@
         <v>1025613339</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>58</v>
@@ -2925,13 +3081,13 @@
         <v>1552720827</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>58</v>
@@ -2951,13 +3107,13 @@
         <v>1080882916</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>78</v>
@@ -2977,10 +3133,10 @@
         <v>1011205791</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2999,10 +3155,10 @@
         <v>1000169013</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -3021,10 +3177,10 @@
         <v>1008001070</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3076,7 +3232,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H28" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:H28">
+    <sortState ref="A2:H28">
       <sortCondition ref="F2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="143">
   <si>
     <t>Hello team, </t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>تقاطع ولي العهد</t>
+  </si>
+  <si>
+    <t>Kindly help update the pick-up point for the below trainee.</t>
+  </si>
+  <si>
+    <t>مصر الجديدة</t>
+  </si>
+  <si>
+    <t>ميدان المحكمة</t>
   </si>
   <si>
     <t>الاثنين 26 الساعة 9 ص ل 5 م</t>
@@ -466,7 +475,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +520,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -672,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,137 +1179,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1328,19 +1362,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,274 +1730,274 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="29">
         <v>1116450350</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="29">
         <v>1011205791</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="29">
         <v>1025613339</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="29">
         <v>1026846805</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="29">
         <v>1000169013</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="63.25" spans="1:3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="38.25" spans="1:3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="29">
         <v>1270058439</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="29">
         <v>1019687588</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="29">
         <v>1060459705</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="29">
         <v>1141267479</v>
       </c>
     </row>
     <row r="19" ht="38.25" spans="1:3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="29">
         <v>1007434092</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="29">
         <v>1097696568</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="29">
         <v>1080882916</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="29">
         <v>1091247732</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="29">
         <v>1004788915</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="29">
         <v>1143367222</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="32">
         <v>1092203298</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="32">
         <v>1110894484</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="31">
         <v>1008001070</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="32">
         <v>1552720827</v>
       </c>
     </row>
@@ -1964,10 +2011,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B32"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -2460,6 +2507,48 @@
         <v>95</v>
       </c>
     </row>
+    <row r="34" ht="17" spans="1:4">
+      <c r="A34" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="23">
+        <v>10333396</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2471,8 +2560,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2491,35 +2580,35 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2535,10 +2624,10 @@
         <v>1091247732</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>79</v>
@@ -2561,16 +2650,16 @@
         <v>1060459705</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -2587,10 +2676,10 @@
         <v>1270058439</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>66</v>
@@ -2613,13 +2702,13 @@
         <v>1019687588</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>69</v>
@@ -2639,19 +2728,19 @@
         <v>1032409151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2665,10 +2754,10 @@
         <v>1141267479</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>74</v>
@@ -2691,10 +2780,10 @@
         <v>1000115172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>74</v>
@@ -2703,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2717,16 +2806,16 @@
         <v>1026846805</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2743,10 +2832,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>62</v>
@@ -2769,10 +2858,10 @@
         <v>1097696568</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>62</v>
@@ -2795,10 +2884,10 @@
         <v>1110894484</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>62</v>
@@ -2821,10 +2910,10 @@
         <v>1021877601</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>62</v>
@@ -2847,13 +2936,13 @@
         <v>1004788915</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>81</v>
@@ -2873,10 +2962,10 @@
         <v>1116450350</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>53</v>
@@ -2899,10 +2988,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>64</v>
@@ -2925,10 +3014,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -2951,10 +3040,10 @@
         <v>1092203298</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>70</v>
@@ -2977,10 +3066,10 @@
         <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>70</v>
@@ -3003,16 +3092,16 @@
         <v>1007434092</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
         <v>76</v>
@@ -3029,13 +3118,13 @@
         <v>1143367222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -3055,13 +3144,13 @@
         <v>1025613339</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>58</v>
@@ -3081,13 +3170,13 @@
         <v>1552720827</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>58</v>
@@ -3107,13 +3196,13 @@
         <v>1080882916</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>78</v>
@@ -3133,10 +3222,10 @@
         <v>1011205791</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3155,10 +3244,10 @@
         <v>1000169013</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -3177,10 +3266,10 @@
         <v>1008001070</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>

--- a/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$H$28</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="151">
   <si>
     <t>Hello team, </t>
   </si>
@@ -461,6 +462,30 @@
   </si>
   <si>
     <t>محمد فرنواني</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>كشري هند </t>
+  </si>
+  <si>
+    <t>From June 2n to 6th</t>
+  </si>
+  <si>
+    <t>Sift Start</t>
+  </si>
+  <si>
+    <t>Sift End</t>
   </si>
 </sst>
 </file>
@@ -482,6 +507,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -527,19 +565,6 @@
       <sz val="11.25"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -709,6 +734,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,18 +753,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,40 +955,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -982,7 +979,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -996,31 +995,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1058,6 +1033,86 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1185,7 +1240,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,34 +1252,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,97 +1364,124 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1730,274 +1812,274 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="25"/>
+      <c r="A2" s="34"/>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" ht="15.25" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="38">
         <v>1116450350</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="38">
         <v>1011205791</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="38">
         <v>1025613339</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="38">
         <v>1026846805</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="38">
         <v>1000169013</v>
       </c>
     </row>
     <row r="12" ht="50.75" spans="1:3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="63.25" spans="1:3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="38.25" spans="1:3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="38">
         <v>1270058439</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="38">
         <v>1019687588</v>
       </c>
     </row>
     <row r="16" ht="50.75" spans="1:3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="38">
         <v>1060459705</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="38">
         <v>1141267479</v>
       </c>
     </row>
     <row r="19" ht="38.25" spans="1:3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="38">
         <v>1007434092</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="38">
         <v>1097696568</v>
       </c>
     </row>
     <row r="21" ht="50.75" spans="1:3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="38">
         <v>1080882916</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="38">
         <v>1091247732</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="38">
         <v>1004788915</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="38">
         <v>1143367222</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="41">
         <v>1092203298</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="41">
         <v>1110894484</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="40">
         <v>1008001070</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="41">
         <v>1552720827</v>
       </c>
     </row>
@@ -2019,435 +2101,435 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="35.2727272727273" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.9090909090909" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.1636363636364" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.9545454545455" style="9" customWidth="1"/>
+    <col min="1" max="1" width="35.2727272727273" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.9090909090909" style="18" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.1636363636364" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.9545454545455" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="23">
         <v>1116450350</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="23">
         <v>1011205791</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="23">
         <v>1025613339</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="23">
         <v>1026846805</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="23">
         <v>1000169013</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="23">
         <v>1270058439</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="23">
         <v>1019687588</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="23">
         <v>1060459705</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="23">
         <v>1141267479</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="23">
         <v>1007434092</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="23">
         <v>1097696568</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="23">
         <v>1080882916</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="23">
         <v>1091247732</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="23">
         <v>1004788915</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="23">
         <v>1143367222</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="23">
         <v>1092203298</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="23">
         <v>1110894484</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="23">
         <v>1008001070</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="23">
         <v>1552720827</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="24">
         <v>1021877601</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2466,49 +2548,49 @@
       <c r="D29"/>
     </row>
     <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31" s="27">
         <v>10333437</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="18">
+      <c r="A32" s="27">
         <v>10333354</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" ht="17" spans="1:4">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B34"/>
@@ -2522,30 +2604,30 @@
       <c r="D35"/>
     </row>
     <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="23">
+      <c r="A37" s="32">
         <v>10333396</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="33" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2558,81 +2640,82 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G25"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
     <col min="2" max="2" width="9.80909090909091" customWidth="1"/>
-    <col min="3" max="3" width="32.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="8.27272727272727" customWidth="1"/>
+    <col min="3" max="3" width="25.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="21.3636363636364" customWidth="1"/>
     <col min="5" max="5" width="21.7818181818182" customWidth="1"/>
     <col min="6" max="6" width="22.7181818181818" customWidth="1"/>
     <col min="7" max="7" width="17.7636363636364" customWidth="1"/>
+    <col min="8" max="8" width="11.7272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="11">
         <v>0.375</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>1091247732</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H3" t="s">
@@ -2640,25 +2723,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="11">
         <v>0.375</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="12">
         <v>1060459705</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>98</v>
       </c>
       <c r="H4" t="s">
@@ -2666,25 +2749,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <v>0.375</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <v>1270058439</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H5" t="s">
@@ -2692,25 +2775,25 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <v>0.375</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <v>1019687588</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H6" t="s">
@@ -2718,25 +2801,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>0.375</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>1032409151</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
@@ -2744,25 +2827,25 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="11">
         <v>0.375</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="12">
         <v>1141267479</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H8" t="s">
@@ -2770,25 +2853,25 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>0.375</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>1000115172</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H9" t="s">
@@ -2796,25 +2879,25 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>0.375</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="12">
         <v>1026846805</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="9" t="s">
         <v>119</v>
       </c>
       <c r="H10" t="s">
@@ -2822,25 +2905,25 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>0.375</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H11" t="s">
@@ -2848,25 +2931,25 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>0.375</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="12">
         <v>1097696568</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H12" t="s">
@@ -2874,25 +2957,25 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>0.375</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="12">
         <v>1110894484</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H13" t="s">
@@ -2900,25 +2983,25 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="11">
         <v>0.375</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>1021877601</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H14" t="s">
@@ -2926,25 +3009,25 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="11">
         <v>0.375</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>1004788915</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H15" t="s">
@@ -2952,25 +3035,25 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="11">
         <v>0.375</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <v>1116450350</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H16" t="s">
@@ -2978,25 +3061,25 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="11">
         <v>0.375</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="9" t="s">
         <v>94</v>
       </c>
       <c r="H17" t="s">
@@ -3004,25 +3087,25 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="11">
         <v>0.375</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H18" t="s">
@@ -3030,25 +3113,25 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="11">
         <v>0.375</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="12">
         <v>1092203298</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H19" t="s">
@@ -3056,25 +3139,25 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="11">
         <v>0.375</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H20" t="s">
@@ -3082,25 +3165,25 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="11">
         <v>0.375</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="12">
         <v>1007434092</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>132</v>
       </c>
       <c r="H21" t="s">
@@ -3108,25 +3191,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="11">
         <v>0.375</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="12">
         <v>1143367222</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H22" t="s">
@@ -3134,25 +3217,25 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="11">
         <v>0.375</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="12">
         <v>1025613339</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H23" t="s">
@@ -3160,25 +3243,25 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="11">
         <v>0.375</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="12">
         <v>1552720827</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H24" t="s">
@@ -3186,25 +3269,25 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="11">
         <v>0.375</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="12">
         <v>1080882916</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="9" t="s">
         <v>78</v>
       </c>
       <c r="H25" t="s">
@@ -3212,112 +3295,573 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="11">
         <v>0.375</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="12">
         <v>1011205791</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="11">
         <v>0.375</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="14">
         <v>1000169013</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="11">
         <v>0.375</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="12">
         <v>1008001070</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="3:7">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="3:7">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="3:7">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="3:7">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="36" ht="15.25" spans="3:6">
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="3:6">
+      <c r="C37" s="4">
+        <v>10333437</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="3:6">
+      <c r="C38" s="4">
+        <v>10333354</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="3:6">
+      <c r="C39" s="4">
+        <v>10333396</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="3:6">
+      <c r="C40" s="4">
+        <v>10333385</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="3:6">
+      <c r="C41" s="4">
+        <v>10333416</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="3:6">
+      <c r="C42" s="4">
+        <v>10333417</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="3:6">
+      <c r="C43" s="4">
+        <v>10333426</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="3:6">
+      <c r="C44" s="4">
+        <v>10333432</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="3:6">
+      <c r="C45" s="4">
+        <v>10333433</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="3:6">
+      <c r="C46" s="4">
+        <v>10333434</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="3:6">
+      <c r="C47" s="4">
+        <v>10333435</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="3:6">
+      <c r="C48" s="4">
+        <v>10333439</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="3:6">
+      <c r="C49" s="4">
+        <v>10333436</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:6">
+      <c r="A51" s="4">
+        <v>10333437</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:6">
+      <c r="A52" s="4">
+        <v>10333354</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52">
+        <v>1026846805</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:6">
+      <c r="A53" s="4">
+        <v>10333396</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53">
+        <v>1060459705</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:6">
+      <c r="A54" s="4">
+        <v>10333385</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54">
+        <v>1025613339</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:6">
+      <c r="A55" s="4">
+        <v>10333416</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55">
+        <v>1270058439</v>
+      </c>
+      <c r="F55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:6">
+      <c r="A56" s="4">
+        <v>10333417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>1019687588</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:6">
+      <c r="A57" s="4">
+        <v>10333426</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57">
+        <v>1097696568</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:6">
+      <c r="A58" s="4">
+        <v>10333432</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58">
+        <v>1091247732</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:6">
+      <c r="A59" s="4">
+        <v>10333433</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59">
+        <v>1004788915</v>
+      </c>
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:6">
+      <c r="A60" s="4">
+        <v>10333434</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60">
+        <v>1032409151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:6">
+      <c r="A61" s="4">
+        <v>10333435</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:6">
+      <c r="A62" s="4">
+        <v>10333439</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:6">
+      <c r="A63" s="4">
+        <v>10333436</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H28" etc:filterBottomFollowUsedRange="0">
@@ -3332,4 +3876,311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="12.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="21.3636363636364" customWidth="1"/>
+    <col min="7" max="8" width="9.63636363636364" customWidth="1"/>
+    <col min="9" max="9" width="17.8545454545455" customWidth="1"/>
+    <col min="10" max="10" width="15.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.25" spans="3:10">
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="5:10">
+      <c r="E2" s="4">
+        <v>10333437</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" ht="15.25" spans="5:10">
+      <c r="E3" s="4">
+        <v>10333354</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="5:10">
+      <c r="E4" s="4">
+        <v>10333396</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="5:10">
+      <c r="E5" s="4">
+        <v>10333385</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="5:10">
+      <c r="E6" s="4">
+        <v>10333416</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="5:10">
+      <c r="E7" s="4">
+        <v>10333417</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="5:10">
+      <c r="E8" s="4">
+        <v>10333426</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="5:10">
+      <c r="E9" s="4">
+        <v>10333432</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="5:10">
+      <c r="E10" s="4">
+        <v>10333433</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="5:10">
+      <c r="E11" s="4">
+        <v>10333434</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="5:10">
+      <c r="E12" s="4">
+        <v>10333435</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="5:10">
+      <c r="E13" s="4">
+        <v>10333439</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="5:10">
+      <c r="E14" s="4">
+        <v>10333436</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 26-5-2025 تجمع.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="152">
   <si>
     <t>Hello team, </t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Sift End</t>
+  </si>
+  <si>
+    <t>كشري هند</t>
   </si>
 </sst>
 </file>
@@ -3402,6 +3405,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
+    <row r="35" ht="15.25"/>
     <row r="36" ht="15.25" spans="3:6">
       <c r="C36" s="1" t="s">
         <v>90</v>
@@ -3884,7 +3888,7 @@
   <dimension ref="C1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4159,7 +4163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="5:10">
+    <row r="14" spans="5:10">
       <c r="E14" s="4">
         <v>10333436</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>70</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
